--- a/CameraAndLensSelectAndCalc/CameraAndLensSelectAndCalc/Model.xlsx
+++ b/CameraAndLensSelectAndCalc/CameraAndLensSelectAndCalc/Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\dotNet\csharp-advanced-tutorial\CameraAndLensSelectAndCalc\CameraAndLensSelectAndCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ADD35F-5A0B-4FC2-9FB9-E29E89981DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A411D-496D-493C-9F35-124E3BB0B539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A98D86C1-A750-48BF-829C-A71EC73B0CC3}"/>
   </bookViews>
@@ -142,15 +142,109 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>备注：此表中算出来的所有参数，都是根据相机镜头的理论数据为依据。表中所展示的数据，都只能进行参考。如需得到精确数据，需要输入实际的参数进行核算。景深、电子放大倍率和显示放大倍率，需要更改显示器大小和镜头实际光圈值。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Height(mm)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Height(pixel)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>备注：此表中算出来的所有参数，都是根据相机镜头的理论数据为依据。表中所展示的数据，都只能进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。如需得到精确数据，需要输入实际的参数进行核算。景深、电子放大倍率和显示放大倍率，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要更改显示器大小和镜头实际光圈值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。此表中的光源只是作为参考使用，如需得到准确的光源型号，需要利用实际的产品进行打光确认。相机的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安装方向仅供参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，实际的安装方式需要通过机构那边的设计进行确认，但</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必须保证镜头的工作距离与此表中所提供距离的±10mm可调范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +257,7 @@
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +294,15 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -290,22 +393,40 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -314,27 +435,9 @@
     <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E35B1DA-D04A-4A7C-98DD-48BFEB052F38}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,16 +825,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -752,11 +855,11 @@
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
@@ -765,11 +868,11 @@
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
@@ -781,7 +884,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="11">
         <f>C18*0.04*C24*C24/(C21*C21+C18*0.04*C24)+C18*0.04*C24*C24/(C21*C21-C18*0.04*C24)</f>
-        <v>11.383474554049295</v>
+        <v>1.7050926191167295</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -794,7 +897,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="13">
-        <v>16</v>
+        <v>2.4</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -823,128 +926,128 @@
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="17"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="15"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="16">
         <v>25.35</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25">
+      <c r="C38" s="16"/>
+      <c r="D38" s="16">
         <v>25.35</v>
       </c>
-      <c r="E38" s="25"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="23"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="27">
+      <c r="A40" s="17"/>
+      <c r="B40" s="21">
         <v>5120</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21">
         <v>5120</v>
       </c>
-      <c r="E40" s="27"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="17"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="15"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="16">
         <v>12.8</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16">
         <v>12.8</v>
       </c>
-      <c r="E42" s="25"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="20" t="s">
+      <c r="C43" s="18"/>
+      <c r="D43" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21">
+      <c r="E43" s="26"/>
+      <c r="F43" s="27">
         <v>0.505</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="26">
+      <c r="A44" s="17"/>
+      <c r="B44" s="19">
         <v>2.5</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="19" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="18">
+      <c r="E45" s="25"/>
+      <c r="F45" s="24">
         <f>B48*25.4/(SQRT(B42*B42+D42+D42))</f>
         <v>31.372331505988221</v>
       </c>
@@ -952,44 +1055,44 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18">
+      <c r="A46" s="20"/>
+      <c r="B46" s="24">
         <f>B44/F43/1000</f>
         <v>4.9504950495049506E-3</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="18"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="24"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="20" t="s">
+      <c r="C47" s="18"/>
+      <c r="D47" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21">
+      <c r="E47" s="26"/>
+      <c r="F47" s="27">
         <f>F45*F43</f>
         <v>15.843027410524051</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="24">
+      <c r="A48" s="17"/>
+      <c r="B48" s="28">
         <v>17</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
@@ -1022,89 +1125,71 @@
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
+    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TSyfLT6w1UiSqdiYyTFu9kuT3rkwH6ONdXz0DcdgbldvnNxy6/YH2/7Kc9McoWKPqG5C7uCGLPbx90JjOrIS8A==" saltValue="PPi/QVMxcBwKdKshXCL1Dw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="34">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
     <mergeCell ref="A53:H58"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A45:A46"/>
@@ -1121,6 +1206,24 @@
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/CameraAndLensSelectAndCalc/CameraAndLensSelectAndCalc/Model.xlsx
+++ b/CameraAndLensSelectAndCalc/CameraAndLensSelectAndCalc/Model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\dotNet\csharp-advanced-tutorial\CameraAndLensSelectAndCalc\CameraAndLensSelectAndCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A411D-496D-493C-9F35-124E3BB0B539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB29270E-CDB7-4F8B-B124-AA00C5D950CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A98D86C1-A750-48BF-829C-A71EC73B0CC3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Camera:</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -245,6 +245,38 @@
       </rPr>
       <t>。</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超焦点位置=（焦距 * 焦距）/（光圈大小 * 弥散圆直径（工业上取0.04））+ 焦距</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近端距离 = （（超焦点位置 - 焦距）* 物距）/ （超焦点位置 + 物距 - （2 * 焦距））</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远端距离 = （（超焦点位置 - 焦距）* 物距）/ （超焦点位置 - 物距 ）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前景深 = 物距 - 近端距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后景深 = 远端距离 - 物距</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总景深 = 远端距离 - 近端距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(前景深)DOF：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(后景深)DOF：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,6 +424,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -808,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E35B1DA-D04A-4A7C-98DD-48BFEB052F38}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:C48"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -825,16 +863,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -855,11 +893,11 @@
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
@@ -868,28 +906,56 @@
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="14">
+        <f>B70</f>
+        <v>0.56429318303537457</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="11">
-        <f>C18*0.04*C24*C24/(C21*C21+C18*0.04*C24)+C18*0.04*C24*C24/(C21*C21-C18*0.04*C24)</f>
-        <v>1.7050926191167295</v>
+        <f>B72</f>
+        <v>0.56859998972092285</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="14">
+        <f>B74</f>
+        <v>1.1328931727562974</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -926,128 +992,128 @@
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="15"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="16">
+      <c r="A38" s="22"/>
+      <c r="B38" s="18">
         <v>25.35</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18">
         <v>25.35</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="21">
+      <c r="A40" s="19"/>
+      <c r="B40" s="23">
         <v>5120</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21">
+      <c r="C40" s="23"/>
+      <c r="D40" s="23">
         <v>5120</v>
       </c>
-      <c r="E40" s="21"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="15"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="16">
+      <c r="A42" s="22"/>
+      <c r="B42" s="18">
         <v>12.8</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16">
+      <c r="C42" s="18"/>
+      <c r="D42" s="18">
         <v>12.8</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="18"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="26" t="s">
+      <c r="C43" s="20"/>
+      <c r="D43" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27">
+      <c r="E43" s="28"/>
+      <c r="F43" s="29">
         <v>0.505</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19">
+      <c r="A44" s="19"/>
+      <c r="B44" s="21">
         <v>2.5</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="25" t="s">
+      <c r="C45" s="17"/>
+      <c r="D45" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="24">
+      <c r="E45" s="27"/>
+      <c r="F45" s="26">
         <f>B48*25.4/(SQRT(B42*B42+D42+D42))</f>
         <v>31.372331505988221</v>
       </c>
@@ -1055,44 +1121,44 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="24">
+      <c r="A46" s="22"/>
+      <c r="B46" s="26">
         <f>B44/F43/1000</f>
         <v>4.9504950495049506E-3</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="24"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="26" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27">
+      <c r="E47" s="28"/>
+      <c r="F47" s="29">
         <f>F45*F43</f>
         <v>15.843027410524051</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="28">
+      <c r="A48" s="19"/>
+      <c r="B48" s="30">
         <v>17</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
@@ -1126,69 +1192,135 @@
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <f>(C21*C21)/(C18*0.04)+C21</f>
+        <v>26091.666666666668</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <f>((B64-C21)*C24)/(B64+C24 - 2*C21)</f>
+        <v>148.43570681696463</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="1">
+        <f>IF(((B64-C21)*C24)/(B64-C24)&lt;=0.00001,100000,((B64-C21)*C24)/(B64-C24))</f>
+        <v>149.56859998972092</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="15">
+        <f>C24-B66</f>
+        <v>0.56429318303537457</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="15">
+        <f>IF(B68&gt;10000,"无穷大",B68-C24)</f>
+        <v>0.56859998972092285</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="15">
+        <f>IF(B68&gt;10000,"无穷大",B68-B66)</f>
+        <v>1.1328931727562974</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TSyfLT6w1UiSqdiYyTFu9kuT3rkwH6ONdXz0DcdgbldvnNxy6/YH2/7Kc9McoWKPqG5C7uCGLPbx90JjOrIS8A==" saltValue="PPi/QVMxcBwKdKshXCL1Dw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TriTd8oXQjH+sfTEFlDm3sL+bi6nOjT74WNTdkbqeEsymZ/QtSMrcVRGzjAtb9upUQz6h1mPBrx3c2NLL1wOEA==" saltValue="WG7C7MRjij+jACHpoo0XLw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="34">
     <mergeCell ref="A53:H58"/>
     <mergeCell ref="A1:H1"/>

--- a/CameraAndLensSelectAndCalc/CameraAndLensSelectAndCalc/Model.xlsx
+++ b/CameraAndLensSelectAndCalc/CameraAndLensSelectAndCalc/Model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\dotNet\csharp-advanced-tutorial\CameraAndLensSelectAndCalc\CameraAndLensSelectAndCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB29270E-CDB7-4F8B-B124-AA00C5D950CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8E3C7-4C99-4AB8-9618-234869AF050F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A98D86C1-A750-48BF-829C-A71EC73B0CC3}"/>
   </bookViews>
@@ -431,13 +431,28 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -446,36 +461,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E35B1DA-D04A-4A7C-98DD-48BFEB052F38}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -863,16 +863,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -893,11 +893,11 @@
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
@@ -906,11 +906,11 @@
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
@@ -992,173 +992,173 @@
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="18">
+      <c r="A38" s="18"/>
+      <c r="B38" s="27">
         <v>25.35</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27">
         <v>25.35</v>
       </c>
-      <c r="E38" s="18"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20" t="s">
+      <c r="C39" s="25"/>
+      <c r="D39" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="20"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="23">
+      <c r="A40" s="24"/>
+      <c r="B40" s="28">
         <v>5120</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23">
+      <c r="C40" s="28"/>
+      <c r="D40" s="28">
         <v>5120</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="17"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="18">
+      <c r="A42" s="18"/>
+      <c r="B42" s="27">
         <v>12.8</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18">
+      <c r="C42" s="27"/>
+      <c r="D42" s="27">
         <v>12.8</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="28" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29">
+      <c r="E43" s="22"/>
+      <c r="F43" s="23">
         <v>0.505</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="21">
+      <c r="A44" s="24"/>
+      <c r="B44" s="29">
         <v>2.5</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="27" t="s">
+      <c r="C45" s="19"/>
+      <c r="D45" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="26">
-        <f>B48*25.4/(SQRT(B42*B42+D42+D42))</f>
-        <v>31.372331505988221</v>
+      <c r="E45" s="21"/>
+      <c r="F45" s="20">
+        <f>B48*25.4/(SQRT(B42*B42+D42*D42))</f>
+        <v>23.853805321589931</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="26">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20">
         <f>B44/F43/1000</f>
         <v>4.9504950495049506E-3</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="26"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="28" t="s">
+      <c r="C47" s="25"/>
+      <c r="D47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29">
+      <c r="E47" s="22"/>
+      <c r="F47" s="23">
         <f>F45*F43</f>
-        <v>15.843027410524051</v>
+        <v>12.046171687402916</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="30">
+      <c r="A48" s="24"/>
+      <c r="B48" s="26">
         <v>17</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
@@ -1192,66 +1192,66 @@
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
@@ -1320,8 +1320,26 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TriTd8oXQjH+sfTEFlDm3sL+bi6nOjT74WNTdkbqeEsymZ/QtSMrcVRGzjAtb9upUQz6h1mPBrx3c2NLL1wOEA==" saltValue="WG7C7MRjij+jACHpoo0XLw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FV8j4GGx5rSFSSgFVNjjMffpbLM4J7DiDp98ukVybPXyvrLlYB1JFW/umsU12ZCYII1BuCT3oTEHLi7gEfDwuA==" saltValue="mHJpkNblGmHbffU+Y73cWw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="34">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="A53:H58"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A45:A46"/>
@@ -1338,28 +1356,10 @@
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CameraAndLensSelectAndCalc/CameraAndLensSelectAndCalc/Model.xlsx
+++ b/CameraAndLensSelectAndCalc/CameraAndLensSelectAndCalc/Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\dotNet\csharp-advanced-tutorial\CameraAndLensSelectAndCalc\CameraAndLensSelectAndCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8E3C7-4C99-4AB8-9618-234869AF050F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F42AC0-7C21-41AB-A2B4-D6C8E775CC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A98D86C1-A750-48BF-829C-A71EC73B0CC3}"/>
+    <workbookView xWindow="2985" yWindow="3030" windowWidth="20970" windowHeight="14970" xr2:uid="{A98D86C1-A750-48BF-829C-A71EC73B0CC3}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">model!$A$1:$H$60</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Camera:</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,10 +56,6 @@
   </si>
   <si>
     <t>物距(WD):</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>±1mm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -158,7 +155,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -169,7 +166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -181,7 +178,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -192,7 +189,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -204,7 +201,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -215,7 +212,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -227,7 +224,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -238,7 +235,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -279,21 +276,30 @@
     <t>(后景深)DOF：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>±10mm</t>
+  </si>
+  <si>
+    <t>接圈长度:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.000_ "/>
+    <numFmt numFmtId="166" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -301,14 +307,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -317,7 +323,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -326,7 +332,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -335,7 +341,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -381,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,47 +400,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -443,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -452,7 +446,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -465,13 +459,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -848,479 +842,478 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E35B1DA-D04A-4A7C-98DD-48BFEB052F38}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="B48" sqref="B48:C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" ht="26.25">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="3" customHeight="1"/>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="14">
+      <c r="C13" s="8">
         <f>B70</f>
         <v>0.56429318303537457</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <f>B72</f>
         <v>0.56859998972092285</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="14">
+      <c r="C15" s="8">
         <f>B74</f>
         <v>1.1328931727562974</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="13">
-        <v>2.4</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>50</v>
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <v>149</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="3" customHeight="1"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="B37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="19"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="15"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="27">
+    <row r="38" spans="1:8">
+      <c r="A38" s="14"/>
+      <c r="B38" s="23">
         <v>25.35</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23">
         <v>25.35</v>
       </c>
-      <c r="E38" s="27"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="25"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="28">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="20"/>
+      <c r="B40" s="24">
         <v>5120</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28">
+      <c r="C40" s="24"/>
+      <c r="D40" s="24">
         <v>5120</v>
       </c>
-      <c r="E40" s="28"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="19"/>
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="15"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="27">
+    <row r="42" spans="1:8">
+      <c r="A42" s="14"/>
+      <c r="B42" s="23">
         <v>12.8</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27">
+      <c r="C42" s="23"/>
+      <c r="D42" s="23">
         <v>12.8</v>
       </c>
-      <c r="E42" s="27"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23">
+      <c r="C43" s="21"/>
+      <c r="D43" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19">
         <v>0.505</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
-      <c r="B44" s="29">
+    <row r="44" spans="1:8">
+      <c r="A44" s="20"/>
+      <c r="B44" s="25">
         <v>2.5</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="C44" s="25"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="20">
+      <c r="C45" s="15"/>
+      <c r="D45" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="16">
         <f>B48*25.4/(SQRT(B42*B42+D42*D42))</f>
         <v>23.853805321589931</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="20">
+    <row r="46" spans="1:8">
+      <c r="A46" s="14"/>
+      <c r="B46" s="16">
         <f>B44/F43/1000</f>
         <v>4.9504950495049506E-3</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="20"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="16"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23">
+      <c r="C47" s="21"/>
+      <c r="D47" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="19">
         <f>F45*F43</f>
         <v>12.046171687402916</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="26">
+    <row r="48" spans="1:8">
+      <c r="A48" s="20"/>
+      <c r="B48" s="22">
         <v>17</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-    </row>
-    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:8" s="5" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
+      <c r="C48" s="22"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="3" customHeight="1"/>
+    <row r="51" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A53" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="63" spans="1:8" hidden="1">
+      <c r="B63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" hidden="1">
       <c r="B64" s="1">
         <f>(C21*C21)/(C18*0.04)+C21</f>
         <v>26091.666666666668</v>
       </c>
     </row>
-    <row r="65" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" hidden="1">
       <c r="B65" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" hidden="1">
       <c r="B66" s="1">
         <f>((B64-C21)*C24)/(B64+C24 - 2*C21)</f>
         <v>148.43570681696463</v>
       </c>
     </row>
-    <row r="67" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" hidden="1">
       <c r="B67" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" hidden="1">
       <c r="B68" s="1">
         <f>IF(((B64-C21)*C24)/(B64-C24)&lt;=0.00001,100000,((B64-C21)*C24)/(B64-C24))</f>
         <v>149.56859998972092</v>
       </c>
     </row>
-    <row r="69" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" hidden="1">
       <c r="B69" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" hidden="1">
+      <c r="B70" s="11">
         <f>C24-B66</f>
         <v>0.56429318303537457</v>
       </c>
     </row>
-    <row r="71" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" hidden="1">
       <c r="B71" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" hidden="1">
+      <c r="B72" s="11">
         <f>IF(B68&gt;10000,"无穷大",B68-C24)</f>
         <v>0.56859998972092285</v>
       </c>
     </row>
-    <row r="73" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" hidden="1">
       <c r="B73" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" hidden="1">
+      <c r="B74" s="11">
         <f>IF(B68&gt;10000,"无穷大",B68-B66)</f>
         <v>1.1328931727562974</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FV8j4GGx5rSFSSgFVNjjMffpbLM4J7DiDp98ukVybPXyvrLlYB1JFW/umsU12ZCYII1BuCT3oTEHLi7gEfDwuA==" saltValue="mHJpkNblGmHbffU+Y73cWw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bCVRuu9Kzh4CqEoo+EVKIQEwG5j7kOhnvRaEMlws1GALHXRpnlZaMV82/eSL6CIAPDKXBJLiAGvOJmk+2XQrBw==" saltValue="+NlsvyipS8eQzEhlCaVEMA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="34">
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B11:D11"/>
